--- a/20191001晓辉组项目表.xlsx
+++ b/20191001晓辉组项目表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D81986-390A-4C92-BDC4-65C42CBF65DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FAC2E9-D518-4C28-BA39-3BFB1DB9B6F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>NO</t>
   </si>
@@ -104,6 +104,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>李停停</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -266,10 +270,6 @@
   </si>
   <si>
     <t>孙国祥</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>检查</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -324,21 +324,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>李婷婷/王喜家js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>IHEP</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 【git+gulp+SCSS】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve"> 【git+gulp+SCSS 仙台】</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -349,7 +357,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="3"/>
         <charset val="134"/>
@@ -358,7 +368,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -366,53 +378,117 @@
       </rPr>
       <t>6561</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>丹野俊也</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>李婷婷</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>李婷婷/王喜家js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>IHEP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三好拓也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温萌萌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孙国祥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺博史</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNJ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 【git+gulp+SCSS 仙台】</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>--20191015151501</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新规</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>RSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+wp</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潘世萍/王喜家</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>于洋洋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">採用サイト
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>20191114103136</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山出美佳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刘晓华</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">コーポレートサイト
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="3"/>
         <charset val="134"/>
@@ -421,83 +497,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6561</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RSP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三好拓也</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>温萌萌</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>孙国祥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>渡辺博史</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNJ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--20191015151501</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新规</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>RSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+wp</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>潘世萍/王喜家</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>于洋洋</t>
+      <t>20191113191808</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -524,19 +531,57 @@
       </rPr>
       <t>20191114103136</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>山出美佳</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>刘晓华</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">コーポレートサイト
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> メルコパワーシステムズ株式会社様-追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>--20191113115542</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>wp</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>js+检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>メルコパワーシステムズ株式会社様-追加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--20191113115542</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宮内淳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">山田整体院
 </t>
     </r>
     <r>
@@ -556,17 +601,28 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20191113191808</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">採用サイト
+      <t>20191114150556</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新规</t>
+  </si>
+  <si>
+    <t>李婷婷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代玉清</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">吹田青年会議所Webリニューアル
 </t>
     </r>
     <r>
@@ -586,75 +642,38 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20191114103136</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>山出美佳</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> メルコパワーシステムズ株式会社様-追加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>--20191113115542</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>指示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>3
+      <t>20191015112025</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">松尾 憲司 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孙国祥
+李志君</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSP+wp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周磊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5
 wp</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>wp</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>js+检查</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>メルコパワーシステムズ株式会社様-追加</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--20191113115542</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+检查</t>
-    </r>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -897,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -933,6 +952,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1084,9 +1114,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,6 +1181,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1507,222 +1537,250 @@
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="8" max="9" width="3.125" customWidth="1"/>
-    <col min="15" max="16" width="3.125" customWidth="1"/>
+    <col min="12" max="13" width="3.125" customWidth="1"/>
+    <col min="19" max="20" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="33" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:20" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="32">
+        <v>18</v>
+      </c>
+      <c r="H1" s="32">
+        <v>19</v>
+      </c>
+      <c r="I1" s="32">
+        <v>20</v>
+      </c>
+      <c r="J1" s="32">
+        <v>21</v>
+      </c>
+      <c r="K1" s="32">
+        <v>22</v>
+      </c>
+      <c r="L1" s="32">
+        <v>23</v>
+      </c>
+      <c r="M1" s="32">
         <v>24</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="N1" s="32">
+        <v>25</v>
+      </c>
+      <c r="O1" s="32">
+        <v>26</v>
+      </c>
+      <c r="P1" s="32">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="32">
+        <v>28</v>
+      </c>
+      <c r="R1" s="32">
+        <v>29</v>
+      </c>
+      <c r="S1" s="32">
+        <v>30</v>
+      </c>
+      <c r="T1" s="32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="33.75" customHeight="1">
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="48">
+        <v>4</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+    </row>
+    <row r="3" spans="1:20" ht="33.75" customHeight="1">
+      <c r="B3" s="45">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="1:20" ht="33.75" customHeight="1">
+      <c r="B4" s="44">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" ht="33.75" customHeight="1">
+      <c r="B5" s="45">
+        <v>4</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="45">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+    </row>
+    <row r="6" spans="1:20" ht="33.75" customHeight="1">
+      <c r="B6" s="44">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="32">
-        <v>15</v>
-      </c>
-      <c r="H1" s="32">
-        <v>16</v>
-      </c>
-      <c r="I1" s="32">
-        <v>17</v>
-      </c>
-      <c r="J1" s="32">
-        <v>18</v>
-      </c>
-      <c r="K1" s="32">
-        <v>19</v>
-      </c>
-      <c r="L1" s="32">
-        <v>20</v>
-      </c>
-      <c r="M1" s="32">
-        <v>21</v>
-      </c>
-      <c r="N1" s="32">
-        <v>22</v>
-      </c>
-      <c r="O1" s="32">
-        <v>23</v>
-      </c>
-      <c r="P1" s="32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="33.75" customHeight="1">
-      <c r="B2" s="45">
+      <c r="G6" s="48">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="42" t="s">
+      <c r="H6" s="44">
+        <v>1</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16" ht="33.75" customHeight="1">
-      <c r="B3" s="44">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="44">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="49">
-        <v>4</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:16" ht="33.75" customHeight="1">
-      <c r="B4" s="45">
-        <v>3</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16" ht="33.75" customHeight="1">
-      <c r="B5" s="44">
-        <v>4</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="44">
-        <v>1</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16" ht="33.75" customHeight="1">
-      <c r="B6" s="45">
-        <v>5</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="45">
-        <v>1</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -1733,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1843,174 +1901,174 @@
       <c r="AX1" s="8"/>
       <c r="AY1" s="8"/>
     </row>
-    <row r="2" spans="1:51" s="10" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B2" s="23">
+    <row r="2" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20">
+        <v>10</v>
+      </c>
+      <c r="H2" s="18">
+        <v>4</v>
+      </c>
+      <c r="I2" s="18">
+        <v>7</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21">
+        <v>43782</v>
+      </c>
+      <c r="L2" s="11">
+        <v>43790</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="20">
+        <v>10</v>
+      </c>
+      <c r="P2" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B3" s="59">
+        <v>2</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="26">
-        <v>53</v>
-      </c>
-      <c r="H2" s="23">
+      <c r="E3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="62">
+        <v>1</v>
+      </c>
+      <c r="H3" s="59">
+        <v>1</v>
+      </c>
+      <c r="I3" s="59">
         <v>0</v>
       </c>
-      <c r="I2" s="23">
+      <c r="J3" s="59">
         <v>0</v>
       </c>
-      <c r="J2" s="23">
+      <c r="K3" s="63">
+        <v>43782</v>
+      </c>
+      <c r="L3" s="67">
+        <v>43787</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+    </row>
+    <row r="4" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
+        <v>4</v>
+      </c>
+      <c r="I4" s="18">
         <v>0</v>
       </c>
-      <c r="K2" s="27">
-        <v>43776</v>
-      </c>
-      <c r="L2" s="28">
-        <v>43784</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B3" s="18">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="20">
-        <v>10</v>
-      </c>
-      <c r="H3" s="18">
-        <v>4</v>
-      </c>
-      <c r="I3" s="18">
-        <v>7</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="J4" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="21">
-        <v>43782</v>
-      </c>
-      <c r="L3" s="11">
-        <v>43790</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="52" t="s">
+      <c r="K4" s="21">
+        <v>43783</v>
+      </c>
+      <c r="L4" s="11">
+        <v>43788</v>
+      </c>
+      <c r="M4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="20">
-        <v>10</v>
-      </c>
-      <c r="P3" s="43">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:51" s="59" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B4" s="60">
-        <v>3</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="67" t="s">
+      <c r="N4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="63">
-        <v>1</v>
-      </c>
-      <c r="H4" s="60">
-        <v>1</v>
-      </c>
-      <c r="I4" s="60">
-        <v>0</v>
-      </c>
-      <c r="J4" s="60">
-        <v>0</v>
-      </c>
-      <c r="K4" s="64">
-        <v>43782</v>
-      </c>
-      <c r="L4" s="68">
-        <v>43787</v>
-      </c>
-      <c r="M4" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="63">
-        <v>1</v>
-      </c>
-      <c r="P4" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
+      <c r="O4" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
       <c r="B5" s="18">
         <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="20">
         <v>1</v>
       </c>
       <c r="H5" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="18">
         <v>0</v>
@@ -2025,10 +2083,10 @@
         <v>43788</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>40</v>
       </c>
       <c r="O5" s="20">
         <v>1</v>
@@ -2044,22 +2102,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="G6" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="18">
         <v>0</v>
@@ -2068,75 +2126,97 @@
         <v>0</v>
       </c>
       <c r="K6" s="21">
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="L6" s="11">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>63</v>
       </c>
       <c r="O6" s="20">
+        <v>2</v>
+      </c>
+      <c r="P6" s="43">
         <v>1</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>55</v>
       </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="43"/>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="20">
+        <v>7</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6</v>
+      </c>
+      <c r="I7" s="18">
+        <v>14</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>43784</v>
+      </c>
+      <c r="L7" s="11">
+        <v>43788</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+    <row r="8" spans="1:51">
+      <c r="C8" s="71"/>
+    </row>
+    <row r="10" spans="1:51">
+      <c r="C10" s="31">
+        <v>20191118</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:51">
       <c r="C11" s="31">
-        <v>20191118</v>
+        <v>20191119</v>
       </c>
       <c r="D11" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:51">
       <c r="C12" s="31">
-        <v>20191119</v>
+        <v>20191120</v>
       </c>
       <c r="D12" s="31">
         <v>2</v>
@@ -2144,77 +2224,120 @@
     </row>
     <row r="13" spans="1:51">
       <c r="C13" s="31">
-        <v>20191120</v>
-      </c>
-      <c r="D13" s="31"/>
+        <v>20191121</v>
+      </c>
+      <c r="D13" s="31">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:51">
       <c r="C14" s="31">
-        <v>20191121</v>
-      </c>
-      <c r="D14" s="31">
-        <v>10</v>
-      </c>
+        <v>20191122</v>
+      </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:51">
-      <c r="C15" s="31">
-        <v>20191122</v>
-      </c>
-      <c r="D15" s="31"/>
+      <c r="C15" s="50">
+        <v>20191123</v>
+      </c>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:51">
-      <c r="C16" s="51">
-        <v>20191123</v>
-      </c>
-      <c r="D16" s="51"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="51">
+      <c r="C16" s="50">
         <v>20191124</v>
       </c>
-      <c r="D17" s="51"/>
-    </row>
-    <row r="18" spans="3:4">
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="C17" s="31">
+        <v>20191125</v>
+      </c>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="2:18">
       <c r="C18" s="31">
-        <v>20191125</v>
+        <v>20191126</v>
       </c>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="2:18">
       <c r="C19" s="31">
-        <v>20191126</v>
+        <v>20191127</v>
       </c>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="2:18">
       <c r="C20" s="31">
-        <v>20191127</v>
+        <v>20191128</v>
       </c>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="2:18">
       <c r="C21" s="31">
-        <v>20191128</v>
+        <v>20191129</v>
       </c>
       <c r="D21" s="31"/>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="31">
-        <v>20191129</v>
-      </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="51">
+    <row r="22" spans="2:18">
+      <c r="C22" s="50">
         <v>20191130</v>
       </c>
-      <c r="D23" s="51"/>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="51">
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="C23" s="50">
         <v>20191131</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D23" s="50"/>
+    </row>
+    <row r="30" spans="2:18" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="26">
+        <v>53</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0</v>
+      </c>
+      <c r="K30" s="27">
+        <v>43776</v>
+      </c>
+      <c r="L30" s="28">
+        <v>43784</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/20191001晓辉组项目表.xlsx
+++ b/20191001晓辉组项目表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FAC2E9-D518-4C28-BA39-3BFB1DB9B6F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB37F3A0-5C09-4934-93C8-343691D904AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>刘晓华</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">コーポレートサイト
 </t>
@@ -675,6 +671,10 @@
     <t>5
 wp</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>刘晓华/王喜家</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1623,10 +1623,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>30</v>
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>27</v>
@@ -1680,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>49</v>
@@ -1715,10 +1715,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>28</v>
@@ -1750,10 +1750,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>17</v>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1955,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>39</v>
@@ -1991,10 +1991,10 @@
         <v>40</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
@@ -2004,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>49</v>
@@ -2034,7 +2034,7 @@
         <v>43788</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>40</v>
@@ -2083,7 +2083,7 @@
         <v>43788</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N5" s="51" t="s">
         <v>40</v>
@@ -2102,16 +2102,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="53" t="s">
         <v>60</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>61</v>
       </c>
       <c r="G6" s="20">
         <v>2</v>
@@ -2132,10 +2132,10 @@
         <v>43789</v>
       </c>
       <c r="M6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="51" t="s">
         <v>62</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>63</v>
       </c>
       <c r="O6" s="20">
         <v>2</v>
@@ -2151,16 +2151,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="E7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>66</v>
       </c>
       <c r="G7" s="20">
         <v>7</v>
@@ -2181,16 +2181,16 @@
         <v>43788</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
@@ -2331,10 +2331,10 @@
         <v>29</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P30" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>

--- a/20191001晓辉组项目表.xlsx
+++ b/20191001晓辉组项目表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB37F3A0-5C09-4934-93C8-343691D904AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21CEFE1-CDF0-418F-9B8C-B159388717E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>NO</t>
   </si>
@@ -86,6 +86,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>周磊</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>东晓辉组</t>
   </si>
   <si>
@@ -448,6 +452,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>山出美佳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">コーポレートサイト
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20191113191808</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">採用サイト
 </t>
@@ -471,10 +505,119 @@
       </rPr>
       <t>20191114103136</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>山出美佳</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> メルコパワーシステムズ株式会社様-追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>--20191113115542</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>js+检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宮内淳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">山田整体院
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20191114150556</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新规</t>
+  </si>
+  <si>
+    <t>李婷婷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代玉清</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">松尾 憲司 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孙国祥
+李志君</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSP+wp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周磊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刘晓华/王喜家</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>メルコパワーシステムズ株式会社様-追加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--20191113115542</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -484,6 +627,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="3"/>
@@ -493,6 +637,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
@@ -510,6 +655,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="3"/>
@@ -519,6 +665,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
@@ -527,100 +674,42 @@
       </rPr>
       <t>20191114103136</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>山出美佳</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> メルコパワーシステムズ株式会社様-追加</t>
-    </r>
-    <r>
-      <rPr>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">吹田青年会議所Webリニューアル
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>--20191113115542</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>wp</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>js+检查</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>メルコパワーシステムズ株式会社様-追加</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--20191113115542</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 宮内淳</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">山田整体院
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20191114150556</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RSP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新规</t>
-  </si>
-  <si>
-    <t>李婷婷</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代玉清</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">吹田青年会議所Webリニューアル
-</t>
-    </r>
+      <t>20191015112025</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4
+wp</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -628,7 +717,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>--</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -638,42 +727,74 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20191015112025</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">松尾 憲司 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>孙国祥
+      <t xml:space="preserve">
+wp</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">みどり
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20191113104737</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土屋里奈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孙国祥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みどり
+--20191113104737</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孙国祥</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レインボーリボン
+--20190918130629</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本ゆい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潘世萍
 李志君</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RSP+wp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>周磊</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5
-wp</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>刘晓华/王喜家</t>
+    <t>12点</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -969,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1185,6 +1306,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1543,22 +1670,22 @@
   <sheetData>
     <row r="1" spans="1:20" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="32">
         <v>18</v>
@@ -1608,28 +1735,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="48">
         <v>4</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="34"/>
@@ -1650,16 +1777,16 @@
         <v>53</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
@@ -1686,16 +1813,16 @@
         <v>49</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="48">
         <v>0.5</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -1721,16 +1848,16 @@
         <v>52</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="45">
         <v>1</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
@@ -1750,16 +1877,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="48">
         <v>1</v>
@@ -1768,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
@@ -1782,6 +1909,47 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
     </row>
+    <row r="7" spans="1:20" ht="33.75" customHeight="1">
+      <c r="B7" s="44">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="48">
+        <v>2</v>
+      </c>
+      <c r="H7" s="44">
+        <v>3</v>
+      </c>
+      <c r="I7" s="44">
+        <v>4</v>
+      </c>
+      <c r="J7" s="44">
+        <v>2</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1791,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1818,16 +1986,16 @@
   <sheetData>
     <row r="1" spans="1:51" s="16" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1</v>
@@ -1848,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>7</v>
@@ -1906,16 +2074,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>42</v>
-      </c>
       <c r="E2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>44</v>
       </c>
       <c r="G2" s="20">
         <v>10</v>
@@ -1936,10 +2104,10 @@
         <v>43790</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="20">
         <v>10</v>
@@ -1950,168 +2118,168 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
     </row>
-    <row r="3" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B3" s="59">
+    <row r="3" spans="1:51" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="62">
+      <c r="G3" s="26">
         <v>1</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="23">
         <v>1</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="23">
         <v>0</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="23">
         <v>0</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="27">
         <v>43782</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="28">
         <v>43787</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+    </row>
+    <row r="4" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B4" s="59">
+        <v>3</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-    </row>
-    <row r="4" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B4" s="18">
-        <v>3</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="E4" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="62">
         <v>1</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="59">
         <v>4</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="59">
         <v>0</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="59">
         <v>0</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="63">
         <v>43783</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="67">
         <v>43788</v>
       </c>
-      <c r="M4" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="20">
+      <c r="M4" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="62">
         <v>0.5</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="69">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B5" s="18">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+    </row>
+    <row r="5" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B5" s="59">
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="E5" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="62">
         <v>1</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="59">
         <v>2</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="59">
         <v>0</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="59">
         <v>0</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="63">
         <v>43783</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="67">
         <v>43788</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="20">
+      <c r="M5" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="62">
         <v>1</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="69">
         <v>1</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
       <c r="B6" s="18">
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>60</v>
       </c>
       <c r="G6" s="20">
         <v>2</v>
@@ -2132,10 +2300,10 @@
         <v>43789</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O6" s="20">
         <v>2</v>
@@ -2148,28 +2316,28 @@
     </row>
     <row r="7" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
       <c r="B7" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G7" s="20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H7" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J7" s="18">
         <v>0</v>
@@ -2178,166 +2346,268 @@
         <v>43784</v>
       </c>
       <c r="L7" s="11">
-        <v>43788</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>66</v>
+        <v>43791</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="O7" s="20">
+        <v>11</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:51">
-      <c r="C8" s="71"/>
+    <row r="8" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="62">
+        <v>7</v>
+      </c>
+      <c r="H8" s="59">
+        <v>6</v>
+      </c>
+      <c r="I8" s="59">
+        <v>14</v>
+      </c>
+      <c r="J8" s="59">
+        <v>0</v>
+      </c>
+      <c r="K8" s="63">
+        <v>43784</v>
+      </c>
+      <c r="L8" s="67">
+        <v>43788</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+    </row>
+    <row r="9" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="62">
+        <v>11</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <v>43784</v>
+      </c>
+      <c r="L9" s="28">
+        <v>43787</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="C10" s="31">
-        <v>20191118</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51">
-      <c r="C11" s="31">
-        <v>20191119</v>
-      </c>
-      <c r="D11" s="31">
-        <v>2</v>
-      </c>
+      <c r="C10" s="71"/>
     </row>
     <row r="12" spans="1:51">
       <c r="C12" s="31">
-        <v>20191120</v>
+        <v>20191118</v>
       </c>
       <c r="D12" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:51">
       <c r="C13" s="31">
-        <v>20191121</v>
+        <v>20191119</v>
       </c>
       <c r="D13" s="31">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:51">
       <c r="C14" s="31">
+        <v>20191120</v>
+      </c>
+      <c r="D14" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51">
+      <c r="C15" s="31">
+        <v>20191121</v>
+      </c>
+      <c r="D15" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51">
+      <c r="C16" s="31">
         <v>20191122</v>
       </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:51">
-      <c r="C15" s="50">
+      <c r="D16" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="C17" s="50">
         <v>20191123</v>
       </c>
-      <c r="D15" s="50"/>
-    </row>
-    <row r="16" spans="1:51">
-      <c r="C16" s="50">
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="C18" s="50">
         <v>20191124</v>
       </c>
-      <c r="D16" s="50"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="C17" s="31">
-        <v>20191125</v>
-      </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="C18" s="31">
-        <v>20191126</v>
-      </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" spans="2:18">
       <c r="C19" s="31">
-        <v>20191127</v>
+        <v>20191125</v>
       </c>
       <c r="D19" s="31"/>
     </row>
     <row r="20" spans="2:18">
       <c r="C20" s="31">
-        <v>20191128</v>
+        <v>20191126</v>
       </c>
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="2:18">
       <c r="C21" s="31">
+        <v>20191127</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="C22" s="31">
+        <v>20191128</v>
+      </c>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="C23" s="31">
         <v>20191129</v>
       </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="C22" s="50">
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="C24" s="50">
         <v>20191130</v>
       </c>
-      <c r="D22" s="50"/>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="C23" s="50">
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="C25" s="50">
         <v>20191131</v>
       </c>
-      <c r="D23" s="50"/>
-    </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B30" s="23">
+      <c r="D25" s="50"/>
+    </row>
+    <row r="32" spans="2:18" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B32" s="23">
         <v>1</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C32" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="26">
+        <v>53</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0</v>
+      </c>
+      <c r="K32" s="27">
+        <v>43776</v>
+      </c>
+      <c r="L32" s="28">
+        <v>43784</v>
+      </c>
+      <c r="M32" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="26">
-        <v>53</v>
-      </c>
-      <c r="H30" s="23">
-        <v>0</v>
-      </c>
-      <c r="I30" s="23">
-        <v>0</v>
-      </c>
-      <c r="J30" s="23">
-        <v>0</v>
-      </c>
-      <c r="K30" s="27">
-        <v>43776</v>
-      </c>
-      <c r="L30" s="28">
-        <v>43784</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
+      <c r="N32" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/20191001晓辉组项目表.xlsx
+++ b/20191001晓辉组项目表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21CEFE1-CDF0-418F-9B8C-B159388717E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D7876-D1D0-4252-8D0E-CE77E0E7E2F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1962,7 +1962,7 @@
   <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/20191001晓辉组项目表.xlsx
+++ b/20191001晓辉组项目表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D7876-D1D0-4252-8D0E-CE77E0E7E2F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4B2C5-4E17-4B3A-8646-B2F1AD922FB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>NO</t>
   </si>
@@ -76,7 +76,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>务</t>
     </r>
@@ -271,14 +270,6 @@
   <si>
     <t>东晓辉组</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>孙国祥</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>三好拓也</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>温萌萌</t>
@@ -385,23 +376,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RSP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>三好拓也</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>温萌萌</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>孙国祥</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -512,20 +491,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> メルコパワーシステムズ株式会社様-追加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>--20191113115542</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>js+检查</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -596,112 +561,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>检查</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>刘晓华/王喜家</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>メルコパワーシステムズ株式会社様-追加</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--20191113115542</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">コーポレートサイト
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20191113191808</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">採用サイト
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20191114103136</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">吹田青年会議所Webリニューアル
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20191015112025</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -767,10 +627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>みどり
 --20191113104737</t>
     <phoneticPr fontId="1"/>
@@ -780,29 +636,142 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>レインボーリボン
---20190918130629</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松本ゆい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>潘世萍
-李志君</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12点</t>
-    <phoneticPr fontId="1"/>
+    <t>石井裕充江</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">コーポレートサイト
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20191113191808</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">採用サイト
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20191114103136</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">吹田青年会議所Webリニューアル
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20191015112025</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MiLI_TOP修正
+--20191118105643</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李停停</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNJ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--20191015151501</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>渡辺博史</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2+检查</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,7 +791,6 @@
       <b/>
       <sz val="12"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -924,7 +892,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -936,40 +903,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Microsoft YaHei"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1090,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,55 +1195,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1664,11 +1552,11 @@
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="12" max="13" width="3.125" customWidth="1"/>
-    <col min="19" max="20" width="3.125" customWidth="1"/>
+    <col min="11" max="12" width="3.125" customWidth="1"/>
+    <col min="18" max="19" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="33" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:19" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
@@ -1688,267 +1576,216 @@
         <v>24</v>
       </c>
       <c r="G1" s="32">
+        <v>19</v>
+      </c>
+      <c r="H1" s="32">
+        <v>20</v>
+      </c>
+      <c r="I1" s="32">
+        <v>21</v>
+      </c>
+      <c r="J1" s="32">
+        <v>22</v>
+      </c>
+      <c r="K1" s="32">
+        <v>23</v>
+      </c>
+      <c r="L1" s="32">
+        <v>24</v>
+      </c>
+      <c r="M1" s="32">
+        <v>25</v>
+      </c>
+      <c r="N1" s="32">
+        <v>26</v>
+      </c>
+      <c r="O1" s="32">
+        <v>27</v>
+      </c>
+      <c r="P1" s="32">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="32">
+        <v>29</v>
+      </c>
+      <c r="R1" s="32">
+        <v>30</v>
+      </c>
+      <c r="S1" s="32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="33.75" customHeight="1">
+      <c r="B2" s="45">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+    </row>
+    <row r="3" spans="1:19" ht="33.75" customHeight="1">
+      <c r="B3" s="44">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" ht="33.75" customHeight="1">
+      <c r="B4" s="45">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" ht="33.75" customHeight="1">
+      <c r="B5" s="44">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="32">
+      <c r="F5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="32">
-        <v>20</v>
-      </c>
-      <c r="J1" s="32">
-        <v>21</v>
-      </c>
-      <c r="K1" s="32">
-        <v>22</v>
-      </c>
-      <c r="L1" s="32">
-        <v>23</v>
-      </c>
-      <c r="M1" s="32">
-        <v>24</v>
-      </c>
-      <c r="N1" s="32">
-        <v>25</v>
-      </c>
-      <c r="O1" s="32">
-        <v>26</v>
-      </c>
-      <c r="P1" s="32">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="32">
-        <v>28</v>
-      </c>
-      <c r="R1" s="32">
+      <c r="G5" s="44">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="32">
-        <v>30</v>
-      </c>
-      <c r="T1" s="32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="33.75" customHeight="1">
-      <c r="B2" s="44">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="48">
-        <v>4</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-    </row>
-    <row r="3" spans="1:20" ht="33.75" customHeight="1">
-      <c r="B3" s="45">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-    </row>
-    <row r="4" spans="1:20" ht="33.75" customHeight="1">
-      <c r="B4" s="44">
-        <v>3</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-    </row>
-    <row r="5" spans="1:20" ht="33.75" customHeight="1">
-      <c r="B5" s="45">
-        <v>4</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="45">
-        <v>1</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="34"/>
       <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-    </row>
-    <row r="6" spans="1:20" ht="33.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:19" ht="33.75" customHeight="1">
       <c r="B6" s="44">
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="48">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="G6" s="44">
+        <v>4</v>
       </c>
       <c r="H6" s="44">
-        <v>1</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="44"/>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-    </row>
-    <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="B7" s="44">
-        <v>6</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="48">
-        <v>2</v>
-      </c>
-      <c r="H7" s="44">
-        <v>3</v>
-      </c>
-      <c r="I7" s="44">
-        <v>4</v>
-      </c>
-      <c r="J7" s="44">
-        <v>2</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -1959,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY32"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2074,16 +1911,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="20">
         <v>10</v>
@@ -2104,10 +1941,10 @@
         <v>43790</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O2" s="20">
         <v>10</v>
@@ -2123,22 +1960,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>38</v>
       </c>
       <c r="G3" s="26">
         <v>1</v>
       </c>
       <c r="H3" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="23">
         <v>0</v>
@@ -2147,145 +1984,145 @@
         <v>0</v>
       </c>
       <c r="K3" s="27">
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="L3" s="28">
-        <v>43787</v>
+        <v>43788</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
     </row>
-    <row r="4" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B4" s="59">
+    <row r="4" spans="1:51" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B4" s="23">
         <v>3</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
+        <v>43783</v>
+      </c>
+      <c r="L4" s="28">
+        <v>43788</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+    </row>
+    <row r="5" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B5" s="18">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="62">
+      <c r="E5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="20">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>4</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>43784</v>
+      </c>
+      <c r="L5" s="11">
+        <v>43789</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="59">
-        <v>4</v>
-      </c>
-      <c r="I4" s="59">
-        <v>0</v>
-      </c>
-      <c r="J4" s="59">
-        <v>0</v>
-      </c>
-      <c r="K4" s="63">
-        <v>43783</v>
-      </c>
-      <c r="L4" s="67">
-        <v>43788</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-    </row>
-    <row r="5" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B5" s="59">
-        <v>4</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="62">
+      <c r="P5" s="43">
         <v>1</v>
       </c>
-      <c r="H5" s="59">
-        <v>2</v>
-      </c>
-      <c r="I5" s="59">
-        <v>0</v>
-      </c>
-      <c r="J5" s="59">
-        <v>0</v>
-      </c>
-      <c r="K5" s="63">
-        <v>43783</v>
-      </c>
-      <c r="L5" s="67">
-        <v>43788</v>
-      </c>
-      <c r="M5" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="62">
-        <v>1</v>
-      </c>
-      <c r="P5" s="69">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
       <c r="B6" s="18">
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G6" s="20">
+        <v>12</v>
+      </c>
+      <c r="H6" s="18">
         <v>2</v>
-      </c>
-      <c r="H6" s="18">
-        <v>4</v>
       </c>
       <c r="I6" s="18">
         <v>0</v>
@@ -2297,317 +2134,260 @@
         <v>43784</v>
       </c>
       <c r="L6" s="11">
-        <v>43789</v>
+        <v>43791</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O6" s="20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P6" s="43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B7" s="18">
+    <row r="7" spans="1:51" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="26">
+        <v>7</v>
+      </c>
+      <c r="H7" s="23">
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="I7" s="23">
+        <v>14</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>43784</v>
+      </c>
+      <c r="L7" s="28">
+        <v>43788</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" spans="1:51" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <v>43787</v>
+      </c>
+      <c r="L8" s="28">
+        <v>43788</v>
+      </c>
+      <c r="M8" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="20">
-        <v>11</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="N8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="58">
+        <v>3000</v>
+      </c>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="1:51">
+      <c r="C9" s="57"/>
+    </row>
+    <row r="11" spans="1:51">
+      <c r="C11" s="31">
+        <v>20191119</v>
+      </c>
+      <c r="D11" s="31">
         <v>2</v>
       </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <v>43784</v>
-      </c>
-      <c r="L7" s="11">
-        <v>43791</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="20">
-        <v>11</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-    </row>
-    <row r="8" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B8" s="59">
-        <v>1</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="62">
-        <v>7</v>
-      </c>
-      <c r="H8" s="59">
-        <v>6</v>
-      </c>
-      <c r="I8" s="59">
-        <v>14</v>
-      </c>
-      <c r="J8" s="59">
-        <v>0</v>
-      </c>
-      <c r="K8" s="63">
-        <v>43784</v>
-      </c>
-      <c r="L8" s="67">
-        <v>43788</v>
-      </c>
-      <c r="M8" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-    </row>
-    <row r="9" spans="1:51" s="58" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B9" s="59">
-        <v>2</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="62">
-        <v>11</v>
-      </c>
-      <c r="H9" s="59">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59">
-        <v>0</v>
-      </c>
-      <c r="J9" s="59">
-        <v>0</v>
-      </c>
-      <c r="K9" s="63">
-        <v>43784</v>
-      </c>
-      <c r="L9" s="28">
-        <v>43787</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="57"/>
-    </row>
-    <row r="10" spans="1:51">
-      <c r="C10" s="71"/>
     </row>
     <row r="12" spans="1:51">
       <c r="C12" s="31">
-        <v>20191118</v>
+        <v>20191120</v>
       </c>
       <c r="D12" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:51">
       <c r="C13" s="31">
-        <v>20191119</v>
+        <v>20191121</v>
       </c>
       <c r="D13" s="31">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:51">
       <c r="C14" s="31">
-        <v>20191120</v>
+        <v>20191122</v>
       </c>
       <c r="D14" s="31">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:51">
-      <c r="C15" s="31">
-        <v>20191121</v>
-      </c>
-      <c r="D15" s="31">
-        <v>10</v>
-      </c>
+      <c r="C15" s="50">
+        <v>20191123</v>
+      </c>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:51">
-      <c r="C16" s="31">
-        <v>20191122</v>
-      </c>
-      <c r="D16" s="31">
-        <v>11</v>
-      </c>
+      <c r="C16" s="50">
+        <v>20191124</v>
+      </c>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="C17" s="50">
-        <v>20191123</v>
-      </c>
-      <c r="D17" s="50"/>
+      <c r="C17" s="31">
+        <v>20191125</v>
+      </c>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="C18" s="50">
-        <v>20191124</v>
-      </c>
-      <c r="D18" s="50"/>
+      <c r="C18" s="31">
+        <v>20191126</v>
+      </c>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="2:18">
       <c r="C19" s="31">
-        <v>20191125</v>
+        <v>20191127</v>
       </c>
       <c r="D19" s="31"/>
     </row>
     <row r="20" spans="2:18">
       <c r="C20" s="31">
-        <v>20191126</v>
+        <v>20191128</v>
       </c>
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="2:18">
       <c r="C21" s="31">
-        <v>20191127</v>
+        <v>20191129</v>
       </c>
       <c r="D21" s="31"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="C22" s="31">
-        <v>20191128</v>
-      </c>
-      <c r="D22" s="31"/>
+      <c r="C22" s="50">
+        <v>20191130</v>
+      </c>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="C23" s="31">
-        <v>20191129</v>
-      </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="C24" s="50">
-        <v>20191130</v>
-      </c>
-      <c r="D24" s="50"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="C25" s="50">
+      <c r="C23" s="50">
         <v>20191131</v>
       </c>
-      <c r="D25" s="50"/>
-    </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B32" s="23">
+      <c r="D23" s="50"/>
+    </row>
+    <row r="30" spans="2:18" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B30" s="23">
         <v>1</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="55" t="s">
+      <c r="C30" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="D30" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="G30" s="26">
+        <v>53</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0</v>
+      </c>
+      <c r="K30" s="27">
+        <v>43776</v>
+      </c>
+      <c r="L30" s="28">
+        <v>43784</v>
+      </c>
+      <c r="M30" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="26">
-        <v>53</v>
-      </c>
-      <c r="H32" s="23">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
-        <v>0</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0</v>
-      </c>
-      <c r="K32" s="27">
-        <v>43776</v>
-      </c>
-      <c r="L32" s="28">
-        <v>43784</v>
-      </c>
-      <c r="M32" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="N32" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
+      <c r="N30" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/20191001晓辉组项目表.xlsx
+++ b/20191001晓辉组项目表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4B2C5-4E17-4B3A-8646-B2F1AD922FB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525EA29-CAAF-4842-A42D-B9C7303B0044}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>NO</t>
   </si>
@@ -765,6 +765,48 @@
   <si>
     <t>2+检查</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ソニー損保
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6560</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仙台</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潘世萍</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1542,7 +1584,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1769,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="44">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>77</v>
@@ -1796,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1814,7 +1856,7 @@
     <col min="8" max="10" width="4.625" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="8.75" customWidth="1"/>
     <col min="16" max="16" width="10.875" customWidth="1"/>
@@ -1947,7 +1989,7 @@
         <v>43</v>
       </c>
       <c r="O2" s="20">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P2" s="43">
         <v>4</v>
@@ -2053,7 +2095,7 @@
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
     </row>
-    <row r="5" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:51" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="18">
         <v>4</v>
       </c>
@@ -2102,7 +2144,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
     </row>
-    <row r="6" spans="1:51" s="17" customFormat="1" ht="32.25" customHeight="1">
+    <row r="6" spans="1:51" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="18">
         <v>5</v>
       </c>
@@ -2143,7 +2185,7 @@
         <v>54</v>
       </c>
       <c r="O6" s="20">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="P6" s="43">
         <v>4</v>
@@ -2251,20 +2293,62 @@
       </c>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:51">
-      <c r="C9" s="57"/>
-    </row>
-    <row r="11" spans="1:51">
-      <c r="C11" s="31">
-        <v>20191119</v>
-      </c>
-      <c r="D11" s="31">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="9" spans="1:51" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27">
+        <v>43787</v>
+      </c>
+      <c r="L9" s="28">
+        <v>43788</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" spans="1:51" ht="15.75" customHeight="1">
+      <c r="C10" s="57"/>
+    </row>
+    <row r="11" spans="1:51" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:51">
       <c r="C12" s="31">
-        <v>20191120</v>
+        <v>20191119</v>
       </c>
       <c r="D12" s="31">
         <v>2</v>
@@ -2272,122 +2356,130 @@
     </row>
     <row r="13" spans="1:51">
       <c r="C13" s="31">
-        <v>20191121</v>
+        <v>20191120</v>
       </c>
       <c r="D13" s="31">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:51">
       <c r="C14" s="31">
+        <v>20191121</v>
+      </c>
+      <c r="D14" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51">
+      <c r="C15" s="31">
         <v>20191122</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D15" s="31">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:51">
-      <c r="C15" s="50">
-        <v>20191123</v>
-      </c>
-      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:51">
       <c r="C16" s="50">
+        <v>20191123</v>
+      </c>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="C17" s="50">
         <v>20191124</v>
       </c>
-      <c r="D16" s="50"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="C17" s="31">
-        <v>20191125</v>
-      </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="2:18">
       <c r="C18" s="31">
-        <v>20191126</v>
+        <v>20191125</v>
       </c>
       <c r="D18" s="31"/>
     </row>
     <row r="19" spans="2:18">
       <c r="C19" s="31">
-        <v>20191127</v>
+        <v>20191126</v>
       </c>
       <c r="D19" s="31"/>
     </row>
     <row r="20" spans="2:18">
       <c r="C20" s="31">
-        <v>20191128</v>
+        <v>20191127</v>
       </c>
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="2:18">
       <c r="C21" s="31">
+        <v>20191128</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="C22" s="31">
         <v>20191129</v>
       </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="C22" s="50">
-        <v>20191130</v>
-      </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="2:18">
       <c r="C23" s="50">
+        <v>20191130</v>
+      </c>
+      <c r="D23" s="50"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="C24" s="50">
         <v>20191131</v>
       </c>
-      <c r="D23" s="50"/>
-    </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B30" s="23">
+      <c r="D24" s="50"/>
+    </row>
+    <row r="31" spans="2:18" s="10" customFormat="1" ht="32.25" customHeight="1">
+      <c r="B31" s="23">
         <v>1</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D31" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E31" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F31" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G31" s="26">
         <v>53</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H31" s="23">
         <v>0</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I31" s="23">
         <v>0</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J31" s="23">
         <v>0</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K31" s="27">
         <v>43776</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L31" s="28">
         <v>43784</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M31" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="47" t="s">
+      <c r="N31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="41" t="s">
+      <c r="O31" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="41" t="s">
+      <c r="P31" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/20191001晓辉组项目表.xlsx
+++ b/20191001晓辉组项目表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525EA29-CAAF-4842-A42D-B9C7303B0044}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FADB08-C9C4-48D6-BD9F-0ED923EFC7C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,15 +797,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仙台</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RSP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>潘世萍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丹野俊也</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1841,7 +1841,7 @@
   <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2301,10 +2301,10 @@
         <v>78</v>
       </c>
       <c r="D9" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="F9" s="56" t="s">
         <v>56</v>
@@ -2328,7 +2328,7 @@
         <v>43788</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9" s="47" t="s">
         <v>43</v>
